--- a/Client/assets/Csv/Building.xlsx
+++ b/Client/assets/Csv/Building.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stvzhou/git/AnnoArk/Client/assets/Csv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\AnnoArk\Client\assets\Csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,10 +14,10 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,14 +230,22 @@
   </si>
   <si>
     <t>meal32872</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>width</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -285,6 +293,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -553,18 +564,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -575,79 +586,85 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>15</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>16</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -655,16 +672,23 @@
         <v>32</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>D2</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>30</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -672,22 +696,29 @@
         <v>3</v>
       </c>
       <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E10" si="0">D3</f>
+        <v>2</v>
+      </c>
+      <c r="F3">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>30</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>5</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>31</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -695,16 +726,23 @@
         <v>27</v>
       </c>
       <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F4">
         <v>4</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" t="s">
         <v>30</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -712,16 +750,23 @@
         <v>35</v>
       </c>
       <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -729,31 +774,38 @@
         <v>37</v>
       </c>
       <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>30</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>10</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>30</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>4</v>
       </c>
-      <c r="S6" t="s">
+      <c r="U6" t="s">
         <v>46</v>
       </c>
-      <c r="T6">
-        <v>2</v>
-      </c>
-      <c r="AA6" t="s">
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="AC6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -761,28 +813,35 @@
         <v>40</v>
       </c>
       <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F7">
         <v>4</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>30</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>5</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>46</v>
       </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="U7" t="s">
         <v>42</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -790,28 +849,35 @@
         <v>48</v>
       </c>
       <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F8">
         <v>4</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>30</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>10</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>46</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>5</v>
       </c>
-      <c r="S8" t="s">
+      <c r="U8" t="s">
         <v>50</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -819,37 +885,44 @@
         <v>44</v>
       </c>
       <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F9">
         <v>6</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>29</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>15</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>46</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>5</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>51</v>
       </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="O9" t="s">
         <v>50</v>
       </c>
-      <c r="S9" t="s">
+      <c r="U9" t="s">
         <v>47</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -857,44 +930,52 @@
         <v>52</v>
       </c>
       <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F10">
         <v>6</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>29</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>10</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>47</v>
       </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="M10" t="s">
         <v>31</v>
       </c>
-      <c r="L10">
-        <v>2</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
         <v>42</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>4</v>
       </c>
-      <c r="S10" t="s">
+      <c r="U10" t="s">
         <v>54</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="原料消耗速率/min/人" sqref="L1:L2 N1:N2 P1:P2 R1:R2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="原料消耗速率/min/人" sqref="N1:N2 P1:P2 R1:R2 T1:T2"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Client/assets/Csv/Building.xlsx
+++ b/Client/assets/Csv/Building.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\AnnoArk\Client\assets\Csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stvzhou/git/AnnoArk/Client/assets/Csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,10 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>制硅厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>silicon9053</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,30 +169,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>温室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>farm90420</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rice43002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MaxHuman</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工具车间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toolprod32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>silicon92</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,10 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>铁砂收集器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ironcoll28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,35 +189,171 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>meal32872</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宿舍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>house8523</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁离子采集器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲烷采集器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch4coll35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cf8092421</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重水采集器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deutercoll20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芯片车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳纤维车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chipprod384</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapprod48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坦克车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tankprod24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制硅车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直升机车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chopprod01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造船厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氢弹工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nukeprod209</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹发射井</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>launchsilo092</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>road</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workshop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shipyard024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shipyard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>launchingsilo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>house</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>methane74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>methane74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carbon480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>iron83420</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>食品厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foodprod72</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meal32872</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>width</t>
+    <t>nukemiss55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chip94024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deuter3501</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -564,18 +672,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC10"/>
+  <dimension ref="A1:AD18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -586,85 +694,88 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>8</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>10</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>11</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>12</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>13</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>14</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -678,17 +789,20 @@
         <f>D2</f>
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>30</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -702,23 +816,26 @@
         <f t="shared" ref="E3:E10" si="0">D3</f>
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>30</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>5</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>31</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -732,17 +849,20 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4">
         <v>4</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>30</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -756,22 +876,25 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5">
         <v>10</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>30</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -780,37 +903,40 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6">
         <v>4</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>30</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>10</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>30</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>4</v>
       </c>
-      <c r="U6" t="s">
-        <v>46</v>
-      </c>
-      <c r="V6">
-        <v>2</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29">
+      <c r="V6" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -819,34 +945,31 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
         <v>30</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>5</v>
       </c>
-      <c r="I7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="V7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
         <v>49</v>
-      </c>
-      <c r="C8" t="s">
-        <v>48</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -855,79 +978,81 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8">
         <v>4</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>30</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>10</v>
       </c>
-      <c r="I8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8">
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8">
         <v>5</v>
       </c>
-      <c r="U8" t="s">
+      <c r="L8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="V8" t="s">
+        <v>43</v>
+      </c>
+      <c r="W8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
         <v>50</v>
       </c>
-      <c r="V8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
       <c r="D9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9">
         <v>6</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>29</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>15</v>
       </c>
-      <c r="I9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9">
+      <c r="J9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9">
         <v>5</v>
       </c>
-      <c r="K9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="O9" t="s">
-        <v>50</v>
-      </c>
-      <c r="U9" t="s">
-        <v>47</v>
-      </c>
-      <c r="V9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="V9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -936,44 +1061,235 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10">
         <v>6</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>29</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>10</v>
       </c>
-      <c r="I10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="M10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10">
-        <v>2</v>
-      </c>
-      <c r="O10" t="s">
-        <v>42</v>
-      </c>
-      <c r="P10">
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="V10" t="s">
+        <v>44</v>
+      </c>
+      <c r="W10">
         <v>4</v>
       </c>
-      <c r="U10" t="s">
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>54</v>
       </c>
-      <c r="V10">
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14">
         <v>4</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17">
+        <v>40</v>
+      </c>
+      <c r="N17" t="s">
+        <v>80</v>
+      </c>
+      <c r="O17">
+        <f>1000*W17</f>
+        <v>16.666699999999999</v>
+      </c>
+      <c r="P17" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q17">
+        <f>10000*W17</f>
+        <v>166.667</v>
+      </c>
+      <c r="R17" t="s">
+        <v>82</v>
+      </c>
+      <c r="S17">
+        <f>200*W17</f>
+        <v>3.3333399999999997</v>
+      </c>
+      <c r="T17" t="s">
+        <v>83</v>
+      </c>
+      <c r="U17">
+        <f>200*W17</f>
+        <v>3.3333399999999997</v>
+      </c>
+      <c r="V17" t="s">
+        <v>81</v>
+      </c>
+      <c r="W17">
+        <v>1.66667E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="原料消耗速率/min/人" sqref="N1:N2 P1:P2 R1:R2 T1:T2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="原料消耗速率/min/人" sqref="O1:O2 Q1:Q2 S1:S2 U1:U2"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Client/assets/Csv/Building.xlsx
+++ b/Client/assets/Csv/Building.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stvzhou/git/AnnoArk/Client/assets/Csv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\AnnoArk\Client\assets\Csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="87">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,10 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RequireTech</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>研究院</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -346,14 +342,30 @@
   </si>
   <si>
     <t>deuter3501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedTech0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dorm08821</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arg0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -672,18 +684,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD18"/>
+  <dimension ref="A1:AE19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U18" sqref="U18"/>
+      <selection pane="bottomRight" activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="30" max="31" width="10.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -694,16 +709,16 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" t="s">
-        <v>46</v>
-      </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -772,10 +787,13 @@
         <v>19</v>
       </c>
       <c r="AD1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -790,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -802,7 +820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -813,11 +831,11 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E10" si="0">D3</f>
+        <f t="shared" ref="E3:E11" si="0">D3</f>
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -835,7 +853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -850,7 +868,7 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -862,12 +880,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -877,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -889,12 +907,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -904,7 +922,7 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -922,31 +940,31 @@
         <v>4</v>
       </c>
       <c r="V6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W6">
         <v>2</v>
       </c>
       <c r="AD6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E7" si="1">D7</f>
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -957,187 +975,205 @@
       <c r="I7">
         <v>5</v>
       </c>
-      <c r="J7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
         <v>30</v>
       </c>
       <c r="I8">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8">
         <v>10</v>
       </c>
-      <c r="J8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
       <c r="L8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="V8" t="s">
-        <v>43</v>
-      </c>
-      <c r="W8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="AE8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K9">
         <v>5</v>
       </c>
+      <c r="L9" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
       <c r="V9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="V10" t="s">
+        <v>40</v>
+      </c>
+      <c r="W10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10">
+      <c r="F11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11">
         <v>6</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
         <v>29</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>10</v>
       </c>
-      <c r="J10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10">
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11">
         <v>5</v>
       </c>
-      <c r="N10" t="s">
-        <v>78</v>
-      </c>
-      <c r="O10">
-        <v>2</v>
-      </c>
-      <c r="V10" t="s">
-        <v>44</v>
-      </c>
-      <c r="W10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="N11" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="V11" t="s">
+        <v>43</v>
+      </c>
+      <c r="W11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
         <v>54</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" t="s">
-        <v>58</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -1146,38 +1182,38 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" t="s">
         <v>60</v>
       </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>64</v>
-      </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -1186,103 +1222,123 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
         <v>73</v>
       </c>
-      <c r="C16" t="s">
+      <c r="G17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
         <v>65</v>
       </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18">
+        <v>40</v>
+      </c>
+      <c r="N18" t="s">
+        <v>79</v>
+      </c>
+      <c r="O18">
+        <f>1000*W18</f>
+        <v>16.666699999999999</v>
+      </c>
+      <c r="P18" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q18">
+        <f>10000*W18</f>
+        <v>166.667</v>
+      </c>
+      <c r="R18" t="s">
+        <v>81</v>
+      </c>
+      <c r="S18">
+        <f>200*W18</f>
+        <v>3.3333399999999997</v>
+      </c>
+      <c r="T18" t="s">
+        <v>82</v>
+      </c>
+      <c r="U18">
+        <f>200*W18</f>
+        <v>3.3333399999999997</v>
+      </c>
+      <c r="V18" t="s">
+        <v>80</v>
+      </c>
+      <c r="W18">
+        <v>1.66667E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
         <v>74</v>
       </c>
-      <c r="G16">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-      <c r="F17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17">
-        <v>40</v>
-      </c>
-      <c r="N17" t="s">
-        <v>80</v>
-      </c>
-      <c r="O17">
-        <f>1000*W17</f>
-        <v>16.666699999999999</v>
-      </c>
-      <c r="P17" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q17">
-        <f>10000*W17</f>
-        <v>166.667</v>
-      </c>
-      <c r="R17" t="s">
-        <v>82</v>
-      </c>
-      <c r="S17">
-        <f>200*W17</f>
-        <v>3.3333399999999997</v>
-      </c>
-      <c r="T17" t="s">
-        <v>83</v>
-      </c>
-      <c r="U17">
-        <f>200*W17</f>
-        <v>3.3333399999999997</v>
-      </c>
-      <c r="V17" t="s">
-        <v>81</v>
-      </c>
-      <c r="W17">
-        <v>1.66667E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18">
+      <c r="G19">
         <v>20</v>
       </c>
     </row>

--- a/Client/assets/Csv/Building.xlsx
+++ b/Client/assets/Csv/Building.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="86">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,247 +117,243 @@
     <t>BuildMat2Count</t>
   </si>
   <si>
+    <t>采沙场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sandcoll204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sand20932</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sand20932</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish34509</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>road00001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>research239</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silicon9053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silicon9242</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHuman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silicon92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool43924</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ironcoll28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron83420</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meal32872</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宿舍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>house8523</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁离子采集器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲烷采集器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch4coll35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cf8092421</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重水采集器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deutercoll20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芯片车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳纤维车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chipprod384</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapprod48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坦克车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tankprod24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制硅车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直升机车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chopprod01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造船厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氢弹工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nukeprod209</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹发射井</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>launchsilo092</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>road</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workshop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shipyard024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>launchingsilo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>house</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>methane74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>methane74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carbon480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron83420</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nukemiss55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chip94024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deuter3501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedTech0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dorm08821</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arg0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>fisher8032</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采沙场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sandcoll204</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sand20932</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sand20932</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish34509</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>road00001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>research239</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>silicon9053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>silicon9242</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxHuman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>silicon92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tool43924</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ironcoll28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iron83420</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meal32872</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宿舍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>house8523</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁离子采集器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甲烷采集器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch4coll35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cf8092421</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重水采集器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deutercoll20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芯片车间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碳纤维车间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chipprod384</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器车间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weapprod48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坦克车间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tankprod24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>制硅车间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直升机车间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chopprod01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造船厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>氢弹工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nukeprod209</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导弹发射井</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>launchsilo092</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>road</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>workshop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shipyard024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shipyard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>launchingsilo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>house</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>methane74</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>methane74</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>carbon480</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iron83420</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nukemiss55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chip94024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deuter3501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NeedTech0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dorm08821</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arg0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -687,10 +683,10 @@
   <dimension ref="A1:AE19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD16" sqref="AD16"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -709,16 +705,16 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
       <c r="F1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -787,18 +783,18 @@
         <v>19</v>
       </c>
       <c r="AD1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AE1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -808,13 +804,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -822,7 +818,7 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -835,19 +831,19 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3">
         <v>5</v>
       </c>
       <c r="V3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W3">
         <v>3</v>
@@ -855,10 +851,10 @@
     </row>
     <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -868,13 +864,13 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G4">
         <v>4</v>
       </c>
       <c r="V4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W4">
         <v>6</v>
@@ -882,10 +878,10 @@
     </row>
     <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -895,13 +891,13 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5">
         <v>8</v>
@@ -909,10 +905,10 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -922,39 +918,39 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6">
         <v>10</v>
       </c>
       <c r="N6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O6">
         <v>4</v>
       </c>
       <c r="V6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W6">
         <v>2</v>
       </c>
       <c r="AD6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:31">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -964,13 +960,13 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7">
         <v>5</v>
@@ -981,10 +977,10 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -993,25 +989,25 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8">
         <v>40</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K8">
         <v>10</v>
       </c>
       <c r="L8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M8">
         <v>4</v>
@@ -1022,10 +1018,10 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1035,31 +1031,31 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9">
         <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K9">
         <v>5</v>
       </c>
       <c r="L9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M9">
         <v>2</v>
       </c>
       <c r="V9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W9">
         <v>2</v>
@@ -1067,10 +1063,10 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1079,25 +1075,25 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G10">
         <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I10">
         <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K10">
         <v>5</v>
       </c>
       <c r="V10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W10">
         <v>2</v>
@@ -1105,10 +1101,10 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1118,31 +1114,31 @@
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11">
         <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O11">
         <v>2</v>
       </c>
       <c r="V11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W11">
         <v>4</v>
@@ -1150,10 +1146,10 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1162,7 +1158,7 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -1170,10 +1166,10 @@
     </row>
     <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -1182,7 +1178,7 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G13">
         <v>20</v>
@@ -1190,10 +1186,10 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -1202,7 +1198,7 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G14">
         <v>20</v>
@@ -1210,10 +1206,10 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -1222,7 +1218,7 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G15">
         <v>40</v>
@@ -1230,10 +1226,10 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -1242,7 +1238,7 @@
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G16">
         <v>40</v>
@@ -1250,10 +1246,10 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -1262,7 +1258,7 @@
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G17">
         <v>60</v>
@@ -1270,10 +1266,10 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -1282,41 +1278,41 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G18">
         <v>40</v>
       </c>
       <c r="N18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O18">
         <f>1000*W18</f>
         <v>16.666699999999999</v>
       </c>
       <c r="P18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q18">
         <f>10000*W18</f>
         <v>166.667</v>
       </c>
       <c r="R18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="S18">
         <f>200*W18</f>
         <v>3.3333399999999997</v>
       </c>
       <c r="T18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U18">
         <f>200*W18</f>
         <v>3.3333399999999997</v>
       </c>
       <c r="V18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W18">
         <v>1.66667E-2</v>
@@ -1324,10 +1320,10 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -1336,7 +1332,7 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G19">
         <v>20</v>

--- a/Client/assets/Csv/Building.xlsx
+++ b/Client/assets/Csv/Building.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\AnnoArk\Client\assets\Csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stvzhou/git/AnnoArk/Client/assets/Csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,10 +178,6 @@
   </si>
   <si>
     <t>iron83420</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meal32872</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -360,8 +356,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -683,18 +679,18 @@
   <dimension ref="A1:AE19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="30" max="31" width="10.25" customWidth="1"/>
+    <col min="30" max="31" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -705,13 +701,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G1" t="s">
         <v>37</v>
@@ -783,13 +779,13 @@
         <v>19</v>
       </c>
       <c r="AD1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -804,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -816,9 +812,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -831,7 +827,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -849,7 +845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -864,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -876,7 +872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -891,7 +887,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -903,12 +899,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -918,7 +914,7 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -945,12 +941,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -960,7 +956,7 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -975,12 +971,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -989,7 +985,7 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1007,7 +1003,7 @@
         <v>10</v>
       </c>
       <c r="L8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M8">
         <v>4</v>
@@ -1016,12 +1012,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1031,7 +1027,7 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -1049,7 +1045,7 @@
         <v>5</v>
       </c>
       <c r="L9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M9">
         <v>2</v>
@@ -1061,12 +1057,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1075,7 +1071,7 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -1099,12 +1095,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1114,7 +1110,7 @@
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -1132,24 +1128,24 @@
         <v>5</v>
       </c>
       <c r="N11" t="s">
+        <v>74</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="V11" t="s">
         <v>75</v>
       </c>
-      <c r="O11">
-        <v>2</v>
-      </c>
-      <c r="V11" t="s">
-        <v>42</v>
-      </c>
       <c r="W11">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1158,18 +1154,18 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G12">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -1178,18 +1174,18 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G13">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -1198,18 +1194,18 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G14">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -1218,18 +1214,18 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G15">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -1238,18 +1234,18 @@
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G16">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -1258,18 +1254,18 @@
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G17">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -1278,52 +1274,52 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G18">
         <v>40</v>
       </c>
       <c r="N18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O18">
         <f>1000*W18</f>
         <v>16.666699999999999</v>
       </c>
       <c r="P18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q18">
         <f>10000*W18</f>
         <v>166.667</v>
       </c>
       <c r="R18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S18">
         <f>200*W18</f>
         <v>3.3333399999999997</v>
       </c>
       <c r="T18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U18">
         <f>200*W18</f>
         <v>3.3333399999999997</v>
       </c>
       <c r="V18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W18">
         <v>1.66667E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -1332,7 +1328,7 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G19">
         <v>20</v>

--- a/Client/assets/Csv/Building.xlsx
+++ b/Client/assets/Csv/Building.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stvzhou/git/AnnoArk/Client/assets/Csv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\AnnoArk\Client\assets\Csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -181,14 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宿舍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -350,6 +339,14 @@
   </si>
   <si>
     <t>fisher8032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Width</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -357,7 +354,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -682,15 +679,15 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q11" sqref="Q11"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="30" max="31" width="10.1640625" customWidth="1"/>
+    <col min="30" max="31" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -701,13 +698,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
         <v>37</v>
@@ -779,13 +776,13 @@
         <v>19</v>
       </c>
       <c r="AD1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AE1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -800,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -812,9 +809,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -827,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -845,7 +842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -860,7 +857,7 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -872,7 +869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -887,7 +884,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -899,12 +896,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -914,7 +911,7 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -941,12 +938,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -956,7 +953,7 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -971,12 +968,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -985,7 +982,7 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1003,7 +1000,7 @@
         <v>10</v>
       </c>
       <c r="L8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M8">
         <v>4</v>
@@ -1012,12 +1009,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1027,7 +1024,7 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -1045,7 +1042,7 @@
         <v>5</v>
       </c>
       <c r="L9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M9">
         <v>2</v>
@@ -1057,12 +1054,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1071,7 +1068,7 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -1095,12 +1092,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1110,7 +1107,7 @@
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -1128,24 +1125,24 @@
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O11">
         <v>2</v>
       </c>
       <c r="V11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="W11">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1154,18 +1151,18 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G12">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -1174,18 +1171,18 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G13">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -1194,18 +1191,18 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G14">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -1214,18 +1211,18 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G15">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -1234,18 +1231,18 @@
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G16">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -1254,18 +1251,18 @@
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G17">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -1274,52 +1271,52 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G18">
         <v>40</v>
       </c>
       <c r="N18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O18">
         <f>1000*W18</f>
         <v>16.666699999999999</v>
       </c>
       <c r="P18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q18">
         <f>10000*W18</f>
         <v>166.667</v>
       </c>
       <c r="R18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S18">
         <f>200*W18</f>
         <v>3.3333399999999997</v>
       </c>
       <c r="T18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="U18">
         <f>200*W18</f>
         <v>3.3333399999999997</v>
       </c>
       <c r="V18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W18">
         <v>1.66667E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -1328,7 +1325,7 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G19">
         <v>20</v>

--- a/Client/assets/Csv/Building.xlsx
+++ b/Client/assets/Csv/Building.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\AnnoArk\Client\assets\Csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\AnnoArk\Client\assets\Csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,10 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$AE$1</definedName>
+  </definedNames>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="98">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,214 +149,265 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>silicon9053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silicon9242</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHuman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silicon92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ironcoll28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron83420</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宿舍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>house8523</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁离子采集器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲烷采集器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch4coll35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cf8092421</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重水采集器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deutercoll20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芯片车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳纤维车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chipprod384</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坦克车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tankprod24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制硅车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直升机车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chopprod01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造船厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氢弹工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nukeprod209</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹发射井</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>launchsilo092</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>road</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workshop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shipyard024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>launchingsilo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>house</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>methane74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>methane74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carbon480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron83420</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nukemiss55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chip94024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deuter3501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedTech0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dorm08821</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arg0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fisher8032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch4frseafloor3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carbonf0834</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ironfrseafloor7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tank015232</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chopper015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chip091331</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ship098831</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sand20932</t>
+  </si>
+  <si>
+    <t>tank23532</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron83420</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carbon480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chip94024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chopper424</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ship40342</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deuterfrsea01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyfusion217</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>research239</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>silicon9053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>silicon9242</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxHuman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>silicon92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tool43924</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ironcoll28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iron83420</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宿舍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>house8523</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁离子采集器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甲烷采集器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch4coll35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cf8092421</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重水采集器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deutercoll20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芯片车间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碳纤维车间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chipprod384</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器车间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weapprod48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坦克车间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tankprod24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>制硅车间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直升机车间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chopprod01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造船厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>氢弹工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nukeprod209</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导弹发射井</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>launchsilo092</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>road</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>workshop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shipyard024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>launchingsilo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>house</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>methane74</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>methane74</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>carbon480</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iron83420</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nukemiss55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chip94024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deuter3501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NeedTech0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dorm08821</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arg0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fisher8032</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Width</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -673,13 +727,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE19"/>
+  <dimension ref="A1:AE18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -698,16 +752,16 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -776,16 +830,19 @@
         <v>19</v>
       </c>
       <c r="AD1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AE1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>32</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2" t="s">
         <v>31</v>
       </c>
@@ -797,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -811,398 +868,599 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E11" si="0">D3</f>
+        <f>D3</f>
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
-      <c r="H3" t="s">
+      <c r="V3" t="s">
         <v>29</v>
       </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="V3" t="s">
-        <v>30</v>
-      </c>
       <c r="W3">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>78</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f>D4</f>
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G4">
         <v>4</v>
       </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
       <c r="V4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W4">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>76</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>D5</f>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
         <v>29</v>
       </c>
       <c r="I5">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="AE5">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>97</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>D6</f>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
         <v>29</v>
       </c>
       <c r="I6">
-        <v>10</v>
-      </c>
-      <c r="N6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
-      <c r="V6" t="s">
-        <v>38</v>
-      </c>
-      <c r="W6">
-        <v>2</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:31">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7" si="1">D7</f>
+        <f>D7</f>
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H7" t="s">
         <v>29</v>
       </c>
       <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="AE7">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7">
+        <v>12</v>
+      </c>
+      <c r="V7" t="s">
+        <v>37</v>
+      </c>
+      <c r="W7">
+        <v>6</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:31">
       <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>120</v>
+      </c>
+      <c r="C8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" t="s">
-        <v>79</v>
-      </c>
       <c r="D8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K8">
-        <v>10</v>
-      </c>
-      <c r="L8" t="s">
-        <v>73</v>
-      </c>
-      <c r="M8">
-        <v>4</v>
-      </c>
-      <c r="AE8">
-        <v>100</v>
+        <v>5</v>
+      </c>
+      <c r="V8" t="s">
+        <v>68</v>
+      </c>
+      <c r="W8">
+        <v>16</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:31">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>150</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>D9</f>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I9">
         <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K9">
         <v>5</v>
       </c>
-      <c r="L9" t="s">
-        <v>73</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
+      <c r="N9" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9">
+        <v>12</v>
       </c>
       <c r="V9" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="W9">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:31">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>200</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10">
+        <f>D10</f>
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I10">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K10">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="L10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
       </c>
       <c r="V10" t="s">
         <v>39</v>
       </c>
       <c r="W10">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>300</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="I11">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11">
         <v>10</v>
       </c>
-      <c r="J11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11">
-        <v>5</v>
+      <c r="L11" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
       </c>
       <c r="N11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11">
+        <v>40</v>
+      </c>
+      <c r="P11" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11">
+        <v>10</v>
+      </c>
+      <c r="V11" t="s">
         <v>72</v>
       </c>
-      <c r="O11">
-        <v>2</v>
-      </c>
-      <c r="V11" t="s">
-        <v>73</v>
-      </c>
       <c r="W11">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="B12">
+        <v>350</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12">
+        <v>80</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12">
+        <v>20</v>
+      </c>
+      <c r="L12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12">
+        <v>60</v>
+      </c>
+      <c r="P12" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q12">
+        <v>20</v>
+      </c>
+      <c r="R12" t="s">
+        <v>92</v>
+      </c>
+      <c r="S12">
+        <v>20</v>
+      </c>
+      <c r="V12" t="s">
+        <v>89</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>400</v>
       </c>
       <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13">
         <v>50</v>
       </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13">
-        <v>20</v>
+      <c r="H13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13">
+        <v>30</v>
+      </c>
+      <c r="L13" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="N13" t="s">
+        <v>70</v>
+      </c>
+      <c r="O13">
+        <v>40</v>
+      </c>
+      <c r="P13" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q13">
+        <v>40</v>
+      </c>
+      <c r="R13" t="s">
+        <v>92</v>
+      </c>
+      <c r="S13">
+        <v>30</v>
+      </c>
+      <c r="V13" t="s">
+        <v>93</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>64</v>
+      </c>
+      <c r="B14">
+        <v>500</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G14">
+        <v>60</v>
+      </c>
+      <c r="H14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14">
+        <v>120</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14">
+        <v>40</v>
+      </c>
+      <c r="L14" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14">
         <v>20</v>
+      </c>
+      <c r="N14" t="s">
+        <v>70</v>
+      </c>
+      <c r="O14">
+        <v>80</v>
+      </c>
+      <c r="P14" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q14">
+        <v>30</v>
+      </c>
+      <c r="R14" t="s">
+        <v>72</v>
+      </c>
+      <c r="S14">
+        <v>5</v>
+      </c>
+      <c r="V14" t="s">
+        <v>94</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>41</v>
+      </c>
+      <c r="B15">
+        <v>1000</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -1211,127 +1469,208 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G15">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15">
+        <v>120</v>
+      </c>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15">
+        <v>20</v>
+      </c>
+      <c r="L15" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="AE15">
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:31">
       <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16">
+        <v>9000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="H16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16">
+        <v>200</v>
+      </c>
+      <c r="J16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16" t="s">
+        <v>72</v>
+      </c>
+      <c r="M16">
+        <v>80</v>
+      </c>
+      <c r="V16" t="s">
+        <v>73</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17">
+        <v>10000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17">
+        <v>40</v>
+      </c>
+      <c r="H17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17">
+        <v>400</v>
+      </c>
+      <c r="J17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17">
+        <v>160</v>
+      </c>
+      <c r="L17" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17">
+        <v>120</v>
+      </c>
+      <c r="N17" t="s">
+        <v>70</v>
+      </c>
+      <c r="O17">
+        <v>15</v>
+      </c>
+      <c r="P17" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q17">
+        <v>100</v>
+      </c>
+      <c r="R17" t="s">
+        <v>72</v>
+      </c>
+      <c r="S17">
+        <v>20</v>
+      </c>
+      <c r="T17" t="s">
+        <v>73</v>
+      </c>
+      <c r="U17">
+        <v>50</v>
+      </c>
+      <c r="V17" t="s">
+        <v>71</v>
+      </c>
+      <c r="W17">
+        <f>1/60</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18">
+        <v>11000</v>
+      </c>
+      <c r="C18" t="s">
         <v>59</v>
       </c>
-      <c r="C16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
-      <c r="A17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17">
-        <v>5</v>
-      </c>
-      <c r="F17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
-      <c r="A18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
       <c r="D18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G18">
-        <v>40</v>
-      </c>
-      <c r="N18" t="s">
-        <v>74</v>
-      </c>
-      <c r="O18">
-        <f>1000*W18</f>
-        <v>16.666699999999999</v>
-      </c>
-      <c r="P18" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q18">
-        <f>10000*W18</f>
-        <v>166.667</v>
-      </c>
-      <c r="R18" t="s">
-        <v>76</v>
-      </c>
-      <c r="S18">
-        <f>200*W18</f>
-        <v>3.3333399999999997</v>
-      </c>
-      <c r="T18" t="s">
-        <v>77</v>
-      </c>
-      <c r="U18">
-        <f>200*W18</f>
-        <v>3.3333399999999997</v>
-      </c>
-      <c r="V18" t="s">
-        <v>75</v>
-      </c>
-      <c r="W18">
-        <v>1.66667E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
-      <c r="A19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19">
-        <v>20</v>
+        <v>1000</v>
+      </c>
+      <c r="H18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18">
+        <v>2000</v>
+      </c>
+      <c r="J18" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18">
+        <v>400</v>
+      </c>
+      <c r="L18" t="s">
+        <v>72</v>
+      </c>
+      <c r="M18">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AE1">
+    <sortState ref="A2:AE18">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A2:AE19">
+    <sortCondition ref="B1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="原料消耗速率/min/人" sqref="O1:O2 Q1:Q2 S1:S2 U1:U2"/>

--- a/Client/assets/Csv/Building.xlsx
+++ b/Client/assets/Csv/Building.xlsx
@@ -133,270 +133,270 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>road00001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silicon9053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silicon9242</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHuman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silicon92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ironcoll28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron83420</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宿舍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>house8523</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁离子采集器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲烷采集器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch4coll35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cf8092421</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重水采集器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deutercoll20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芯片车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳纤维车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chipprod384</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坦克车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tankprod24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制硅车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直升机车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chopprod01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造船厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氢弹工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nukeprod209</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹发射井</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>launchsilo092</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>road</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workshop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shipyard024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>launchingsilo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>house</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>methane74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>methane74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carbon480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron83420</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nukemiss55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chip94024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deuter3501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedTech0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dorm08821</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arg0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fisher8032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch4frseafloor3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carbonf0834</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ironfrseafloor7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tank015232</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chopper015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chip091331</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ship098831</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sand20932</t>
+  </si>
+  <si>
+    <t>tank23532</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron83420</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carbon480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chip94024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chopper424</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ship40342</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deuterfrsea01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyfusion217</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>fish34509</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>road00001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>silicon9053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>silicon9242</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxHuman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>silicon92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ironcoll28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iron83420</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宿舍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>house8523</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁离子采集器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甲烷采集器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch4coll35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cf8092421</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重水采集器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deutercoll20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芯片车间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碳纤维车间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chipprod384</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坦克车间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tankprod24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>制硅车间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直升机车间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chopprod01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造船厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>氢弹工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nukeprod209</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导弹发射井</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>launchsilo092</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>road</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>workshop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shipyard024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>launchingsilo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>house</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>methane74</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>methane74</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>carbon480</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iron83420</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nukemiss55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chip94024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deuter3501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NeedTech0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dorm08821</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arg0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fisher8032</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch4frseafloor3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>carbonf0834</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ironfrseafloor7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tank015232</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chopper015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chip091331</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ship098831</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sand20932</t>
-  </si>
-  <si>
-    <t>tank23532</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iron83420</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>carbon480</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chip94024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chopper424</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ship40342</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deuterfrsea01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyfusion217</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -730,10 +730,10 @@
   <dimension ref="A1:AE18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -752,16 +752,16 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
         <v>79</v>
       </c>
-      <c r="E1" t="s">
-        <v>80</v>
-      </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -830,21 +830,21 @@
         <v>19</v>
       </c>
       <c r="AD1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -884,7 +884,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -914,7 +914,7 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -926,7 +926,7 @@
         <v>5</v>
       </c>
       <c r="V4" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="W4">
         <v>24</v>
@@ -934,13 +934,13 @@
     </row>
     <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -950,7 +950,7 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -983,7 +983,7 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -997,13 +997,13 @@
     </row>
     <row r="7" spans="1:31">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1013,7 +1013,7 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -1031,24 +1031,24 @@
         <v>12</v>
       </c>
       <c r="V7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W7">
         <v>6</v>
       </c>
       <c r="AD7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1057,7 +1057,7 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -1069,30 +1069,30 @@
         <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8">
         <v>5</v>
       </c>
       <c r="V8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W8">
         <v>16</v>
       </c>
       <c r="AD8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:31">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>150</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -1102,7 +1102,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -1114,36 +1114,36 @@
         <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K9">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O9">
         <v>12</v>
       </c>
       <c r="V9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W9">
         <v>8</v>
       </c>
       <c r="AD9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:31">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10">
         <v>200</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1153,7 +1153,7 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -1165,36 +1165,36 @@
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K10">
         <v>7</v>
       </c>
       <c r="L10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M10">
         <v>3</v>
       </c>
       <c r="V10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W10">
         <v>8</v>
       </c>
       <c r="AD10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>300</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1203,60 +1203,60 @@
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11">
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I11">
         <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K11">
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M11">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O11">
         <v>40</v>
       </c>
       <c r="P11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q11">
         <v>10</v>
       </c>
       <c r="V11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W11">
         <v>20</v>
       </c>
       <c r="AD11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>350</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -1265,66 +1265,66 @@
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12">
         <v>40</v>
       </c>
       <c r="H12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I12">
         <v>80</v>
       </c>
       <c r="J12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K12">
         <v>20</v>
       </c>
       <c r="L12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M12">
         <v>10</v>
       </c>
       <c r="N12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O12">
         <v>60</v>
       </c>
       <c r="P12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q12">
         <v>20</v>
       </c>
       <c r="R12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S12">
         <v>20</v>
       </c>
       <c r="V12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W12">
         <v>1</v>
       </c>
       <c r="AD12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13">
         <v>400</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -1333,66 +1333,66 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13">
         <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I13">
         <v>100</v>
       </c>
       <c r="J13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K13">
         <v>30</v>
       </c>
       <c r="L13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M13">
         <v>10</v>
       </c>
       <c r="N13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O13">
         <v>40</v>
       </c>
       <c r="P13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q13">
         <v>40</v>
       </c>
       <c r="R13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S13">
         <v>30</v>
       </c>
       <c r="V13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W13">
         <v>1</v>
       </c>
       <c r="AD13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14">
         <v>500</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -1401,66 +1401,66 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>60</v>
       </c>
       <c r="H14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I14">
         <v>120</v>
       </c>
       <c r="J14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K14">
         <v>40</v>
       </c>
       <c r="L14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M14">
         <v>20</v>
       </c>
       <c r="N14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O14">
         <v>80</v>
       </c>
       <c r="P14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q14">
         <v>30</v>
       </c>
       <c r="R14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S14">
         <v>5</v>
       </c>
       <c r="V14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W14">
         <v>1</v>
       </c>
       <c r="AD14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <v>1000</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -1469,25 +1469,25 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I15">
         <v>120</v>
       </c>
       <c r="J15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K15">
         <v>20</v>
       </c>
       <c r="L15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M15">
         <v>10</v>
@@ -1498,13 +1498,13 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16">
         <v>9000</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1513,48 +1513,48 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G16">
         <v>8</v>
       </c>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I16">
         <v>200</v>
       </c>
       <c r="J16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K16">
         <v>100</v>
       </c>
       <c r="L16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M16">
         <v>80</v>
       </c>
       <c r="V16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W16">
         <v>1</v>
       </c>
       <c r="AD16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:30">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17">
         <v>10000</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -1563,73 +1563,73 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>40</v>
       </c>
       <c r="H17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I17">
         <v>400</v>
       </c>
       <c r="J17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K17">
         <v>160</v>
       </c>
       <c r="L17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M17">
         <v>120</v>
       </c>
       <c r="N17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O17">
         <v>15</v>
       </c>
       <c r="P17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q17">
         <v>100</v>
       </c>
       <c r="R17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S17">
         <v>20</v>
       </c>
       <c r="T17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U17">
         <v>50</v>
       </c>
       <c r="V17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W17">
         <f>1/60</f>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="AD17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:30">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18">
         <v>11000</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -1638,25 +1638,25 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G18">
         <v>1000</v>
       </c>
       <c r="H18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I18">
         <v>2000</v>
       </c>
       <c r="J18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K18">
         <v>400</v>
       </c>
       <c r="L18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M18">
         <v>200</v>

--- a/Client/assets/Csv/Building.xlsx
+++ b/Client/assets/Csv/Building.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\AnnoArk\Client\assets\Csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\AnnoArk\Client\assets\Csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$AE$1</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -730,10 +730,10 @@
   <dimension ref="A1:AE18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -850,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <f>D2</f>
+        <f t="shared" ref="E2:E7" si="0">D2</f>
         <v>1</v>
       </c>
       <c r="F2" t="s">
@@ -880,7 +880,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F3" t="s">
@@ -910,7 +910,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <f>D4</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F4" t="s">
@@ -946,7 +946,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <f>D5</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F5" t="s">
@@ -979,14 +979,14 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <f>D6</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F6" t="s">
         <v>62</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
         <v>29</v>
@@ -1009,7 +1009,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <f>D7</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F7" t="s">
@@ -1268,7 +1268,7 @@
         <v>62</v>
       </c>
       <c r="G12">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
         <v>87</v>
@@ -1336,7 +1336,7 @@
         <v>62</v>
       </c>
       <c r="G13">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s">
         <v>87</v>
@@ -1404,7 +1404,7 @@
         <v>62</v>
       </c>
       <c r="G14">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s">
         <v>87</v>
@@ -1516,7 +1516,7 @@
         <v>62</v>
       </c>
       <c r="G16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H16" t="s">
         <v>36</v>
@@ -1566,7 +1566,7 @@
         <v>62</v>
       </c>
       <c r="G17">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="H17" t="s">
         <v>87</v>

--- a/Client/assets/Csv/Building.xlsx
+++ b/Client/assets/Csv/Building.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="98">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -733,7 +733,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -858,12 +858,6 @@
       </c>
       <c r="G2">
         <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:31">

--- a/Client/assets/Csv/Building.xlsx
+++ b/Client/assets/Csv/Building.xlsx
@@ -269,138 +269,138 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>house</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>methane74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>methane74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carbon480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron83420</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nukemiss55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chip94024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deuter3501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedTech0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dorm08821</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arg0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fisher8032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch4frseafloor3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carbonf0834</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ironfrseafloor7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tank015232</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chopper015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chip091331</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ship098831</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sand20932</t>
+  </si>
+  <si>
+    <t>tank23532</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron83420</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carbon480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chip94024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chopper424</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ship40342</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deuterfrsea01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyfusion217</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish34509</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>research239</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>launchingsilo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>house</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>methane74</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>methane74</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>carbon480</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iron83420</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nukemiss55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chip94024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deuter3501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NeedTech0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dorm08821</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arg0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fisher8032</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch4frseafloor3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>carbonf0834</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ironfrseafloor7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tank015232</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chopper015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chip091331</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ship098831</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sand20932</t>
-  </si>
-  <si>
-    <t>tank23532</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iron83420</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>carbon480</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chip94024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chopper424</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ship40342</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deuterfrsea01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyfusion217</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish34509</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>research239</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -733,7 +733,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -752,10 +752,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" t="s">
         <v>78</v>
-      </c>
-      <c r="E1" t="s">
-        <v>79</v>
       </c>
       <c r="F1" t="s">
         <v>60</v>
@@ -830,10 +830,10 @@
         <v>19</v>
       </c>
       <c r="AD1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:31">
@@ -892,7 +892,7 @@
     </row>
     <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -920,7 +920,7 @@
         <v>5</v>
       </c>
       <c r="V4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W4">
         <v>24</v>
@@ -928,7 +928,7 @@
     </row>
     <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5">
         <v>30</v>
@@ -944,7 +944,7 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -1069,13 +1069,13 @@
         <v>5</v>
       </c>
       <c r="V8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W8">
         <v>16</v>
       </c>
       <c r="AD8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -1114,19 +1114,19 @@
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O9">
         <v>12</v>
       </c>
       <c r="V9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W9">
         <v>8</v>
       </c>
       <c r="AD9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -1165,7 +1165,7 @@
         <v>7</v>
       </c>
       <c r="L10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M10">
         <v>3</v>
@@ -1177,7 +1177,7 @@
         <v>8</v>
       </c>
       <c r="AD10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -1203,7 +1203,7 @@
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I11">
         <v>20</v>
@@ -1215,7 +1215,7 @@
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M11">
         <v>4</v>
@@ -1227,19 +1227,19 @@
         <v>40</v>
       </c>
       <c r="P11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q11">
         <v>10</v>
       </c>
       <c r="V11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W11">
         <v>20</v>
       </c>
       <c r="AD11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -1265,7 +1265,7 @@
         <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I12">
         <v>80</v>
@@ -1277,37 +1277,37 @@
         <v>20</v>
       </c>
       <c r="L12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M12">
         <v>10</v>
       </c>
       <c r="N12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O12">
         <v>60</v>
       </c>
       <c r="P12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q12">
         <v>20</v>
       </c>
       <c r="R12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S12">
         <v>20</v>
       </c>
       <c r="V12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W12">
         <v>1</v>
       </c>
       <c r="AD12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -1333,7 +1333,7 @@
         <v>40</v>
       </c>
       <c r="H13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I13">
         <v>100</v>
@@ -1345,37 +1345,37 @@
         <v>30</v>
       </c>
       <c r="L13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M13">
         <v>10</v>
       </c>
       <c r="N13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O13">
         <v>40</v>
       </c>
       <c r="P13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q13">
         <v>40</v>
       </c>
       <c r="R13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S13">
         <v>30</v>
       </c>
       <c r="V13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W13">
         <v>1</v>
       </c>
       <c r="AD13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -1401,7 +1401,7 @@
         <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I14">
         <v>120</v>
@@ -1413,37 +1413,37 @@
         <v>40</v>
       </c>
       <c r="L14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M14">
         <v>20</v>
       </c>
       <c r="N14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O14">
         <v>80</v>
       </c>
       <c r="P14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q14">
         <v>30</v>
       </c>
       <c r="R14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S14">
         <v>5</v>
       </c>
       <c r="V14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W14">
         <v>1</v>
       </c>
       <c r="AD14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -1454,7 +1454,7 @@
         <v>1000</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -1463,13 +1463,13 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I15">
         <v>120</v>
@@ -1481,7 +1481,7 @@
         <v>20</v>
       </c>
       <c r="L15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M15">
         <v>10</v>
@@ -1519,25 +1519,25 @@
         <v>200</v>
       </c>
       <c r="J16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K16">
         <v>100</v>
       </c>
       <c r="L16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M16">
         <v>80</v>
       </c>
       <c r="V16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W16">
         <v>1</v>
       </c>
       <c r="AD16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:30">
@@ -1563,7 +1563,7 @@
         <v>200</v>
       </c>
       <c r="H17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I17">
         <v>400</v>
@@ -1575,44 +1575,44 @@
         <v>160</v>
       </c>
       <c r="L17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M17">
         <v>120</v>
       </c>
       <c r="N17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O17">
         <v>15</v>
       </c>
       <c r="P17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q17">
         <v>100</v>
       </c>
       <c r="R17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S17">
         <v>20</v>
       </c>
       <c r="T17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U17">
         <v>50</v>
       </c>
       <c r="V17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W17">
         <f>1/60</f>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="AD17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:30">
@@ -1632,28 +1632,28 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="G18">
         <v>1000</v>
       </c>
       <c r="H18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I18">
+        <v>3000</v>
+      </c>
+      <c r="J18" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18">
         <v>2000</v>
       </c>
-      <c r="J18" t="s">
-        <v>69</v>
-      </c>
-      <c r="K18">
-        <v>400</v>
-      </c>
       <c r="L18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M18">
-        <v>200</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
